--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2014,15 +2014,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2033,26 +2033,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="173.13671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="145.83984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.43359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="559">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-episodeOfCare} &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Extension {workflow-episodeOfCare}
 </t>
   </si>
   <si>
@@ -461,6 +461,84 @@
   </si>
   <si>
     <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:episodeOfCare.id</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:episodeOfCare.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:episodeOfCare.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/workflow-episodeOfCare</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:episodeOfCare.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-episodeofcare) &lt;&lt;referenced&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>CarePlan.extension:statusHistory</t>
@@ -476,10 +554,6 @@
     <t>Careplan status history</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>CarePlan.extension:teamHistory</t>
   </si>
   <si>
@@ -1084,18 +1158,6 @@
     <t>CarePlan.activity.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
@@ -1103,9 +1165,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1196,9 +1255,6 @@
   </si>
   <si>
     <t>CarePlan.activity.progress.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>CarePlan.activity.progress.author[x]</t>
@@ -2005,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3200,11 +3256,9 @@
         <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>145</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3213,7 +3267,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3225,13 +3279,13 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3282,25 +3336,25 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -3311,14 +3365,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3327,7 +3379,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3339,13 +3391,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3384,19 +3436,19 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3405,7 +3457,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>137</v>
@@ -3425,23 +3477,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3453,22 +3503,24 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3510,25 +3562,25 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3539,23 +3591,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3567,13 +3617,13 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3624,25 +3674,25 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3653,13 +3703,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>78</v>
@@ -3681,13 +3731,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3747,7 +3797,7 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -3767,14 +3817,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3787,26 +3839,22 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3854,7 +3902,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3863,7 +3911,7 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>137</v>
@@ -3872,7 +3920,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3883,12 +3931,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3906,23 +3956,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3970,7 +4016,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3979,32 +4025,34 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4022,16 +4070,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4082,7 +4130,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4091,16 +4139,16 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4111,12 +4159,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4134,20 +4184,18 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4196,7 +4244,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4205,16 +4253,16 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4225,43 +4273,45 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4310,7 +4360,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4322,13 +4372,13 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4339,21 +4389,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4365,19 +4415,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4426,7 +4476,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4441,24 +4491,24 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4469,7 +4519,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4481,17 +4531,15 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4540,7 +4588,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4555,10 +4603,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4580,22 +4628,22 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>215</v>
@@ -4606,9 +4654,7 @@
       <c r="N23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4632,11 +4678,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4657,10 +4705,10 @@
         <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4669,59 +4717,57 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4746,37 +4792,37 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4785,7 +4831,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4799,21 +4845,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4825,19 +4871,19 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4862,11 +4908,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4884,7 +4932,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4899,13 +4947,13 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4913,10 +4961,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4939,15 +4987,17 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4996,13 +5046,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -5025,10 +5075,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5036,7 +5086,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -5045,23 +5095,25 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5086,13 +5138,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5110,10 +5160,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -5125,28 +5175,28 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5159,22 +5209,26 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5198,13 +5252,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5222,7 +5276,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -5237,24 +5291,24 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5265,7 +5319,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5277,18 +5331,20 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5312,13 +5368,11 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5336,13 +5390,13 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
@@ -5351,32 +5405,32 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5391,20 +5445,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5452,7 +5502,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5467,28 +5517,28 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5507,16 +5557,18 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5564,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5579,13 +5631,13 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5593,18 +5645,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5619,17 +5671,15 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5678,10 +5728,10 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
@@ -5693,24 +5743,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5721,7 +5771,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5730,19 +5780,19 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5792,13 +5842,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5807,35 +5857,35 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5844,20 +5894,22 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5906,13 +5958,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5921,32 +5973,32 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5961,20 +6013,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6022,13 +6070,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -6037,24 +6085,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6065,7 +6113,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6074,23 +6122,21 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6138,13 +6184,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -6153,13 +6199,13 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6167,10 +6213,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6193,20 +6239,18 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6254,7 +6298,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6272,21 +6316,21 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6309,17 +6353,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6368,7 +6412,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6380,16 +6424,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6397,10 +6441,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6408,7 +6452,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>86</v>
@@ -6420,19 +6464,23 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6480,43 +6528,43 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6535,18 +6583,20 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6594,7 +6644,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6606,13 +6656,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6623,14 +6673,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6643,25 +6693,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="O41" t="s" s="2">
-        <v>172</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6710,7 +6760,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6722,27 +6772,27 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6765,18 +6815,18 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6800,13 +6850,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6824,7 +6874,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6836,13 +6886,13 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6853,10 +6903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6867,7 +6917,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6879,20 +6929,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>146</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6940,25 +6986,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>150</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6969,14 +7015,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6995,20 +7041,18 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7056,7 +7100,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>154</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7068,59 +7112,63 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>150</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7168,25 +7216,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7197,14 +7245,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7223,16 +7271,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7258,31 +7306,31 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7294,13 +7342,13 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7311,10 +7359,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7325,7 +7373,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7334,10 +7382,10 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>380</v>
@@ -7348,7 +7396,9 @@
       <c r="N47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7384,23 +7434,25 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7409,28 +7461,26 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7439,7 +7489,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7448,21 +7498,23 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7510,13 +7562,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7528,25 +7580,23 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>129</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7564,20 +7614,18 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>146</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7626,7 +7674,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>148</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7638,38 +7686,38 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7678,18 +7726,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7726,51 +7776,51 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>154</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7778,7 +7828,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7793,15 +7843,17 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7838,22 +7890,20 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
@@ -7868,7 +7918,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7879,18 +7929,20 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
@@ -7902,23 +7954,21 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7975,32 +8025,34 @@
         <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8018,21 +8070,21 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8080,7 +8132,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8089,7 +8141,7 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>98</v>
@@ -8098,21 +8150,21 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8132,16 +8184,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8192,7 +8244,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8204,38 +8256,38 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8244,20 +8296,18 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8306,74 +8356,74 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>343</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>171</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>172</v>
+        <v>426</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8422,25 +8472,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8451,10 +8501,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8477,17 +8527,17 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8512,13 +8562,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8536,7 +8586,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8545,7 +8595,7 @@
         <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>98</v>
@@ -8554,7 +8604,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8565,10 +8615,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8579,7 +8629,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8591,18 +8641,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>266</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>428</v>
+        <v>147</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8650,25 +8698,25 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>426</v>
+        <v>148</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8679,14 +8727,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8705,20 +8753,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>191</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8766,7 +8812,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>154</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8778,13 +8824,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8795,45 +8841,45 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>436</v>
+        <v>196</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8858,13 +8904,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8882,39 +8928,39 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>440</v>
+        <v>129</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8925,7 +8971,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8937,18 +8983,18 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8972,13 +9018,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8996,13 +9042,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9011,10 +9057,10 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9025,10 +9071,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9051,18 +9097,18 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>307</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9110,7 +9156,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9125,10 +9171,10 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9139,10 +9185,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9165,17 +9211,19 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>215</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9224,7 +9272,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9239,10 +9287,10 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9253,10 +9301,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9264,7 +9312,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>86</v>
@@ -9273,25 +9321,25 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9316,13 +9364,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9340,10 +9388,10 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>86</v>
@@ -9355,24 +9403,24 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9383,7 +9431,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9395,16 +9443,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9430,13 +9478,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9454,13 +9502,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -9469,7 +9517,7 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9483,10 +9531,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9497,38 +9545,34 @@
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>474</v>
+        <v>331</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q66" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9572,13 +9616,13 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
@@ -9587,10 +9631,10 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>480</v>
+        <v>336</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9601,10 +9645,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9615,7 +9659,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9627,17 +9671,17 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9686,13 +9730,13 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
@@ -9701,24 +9745,24 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9726,7 +9770,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9735,25 +9779,25 @@
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>489</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9778,13 +9822,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9802,10 +9846,10 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
@@ -9817,24 +9861,24 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9845,7 +9889,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9857,20 +9901,18 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>497</v>
+        <v>258</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9918,13 +9960,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -9933,24 +9975,24 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>502</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9967,26 +10009,32 @@
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="R70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10006,13 +10054,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10030,7 +10078,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10045,28 +10093,28 @@
         <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>511</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10085,17 +10133,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10144,7 +10192,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10159,24 +10207,24 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10199,16 +10247,20 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10256,7 +10308,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10274,21 +10326,21 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10299,7 +10351,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10311,16 +10363,20 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>242</v>
+        <v>515</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10368,13 +10424,13 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
@@ -10383,24 +10439,24 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>78</v>
+        <v>519</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>374</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10411,7 +10467,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10423,18 +10479,16 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>368</v>
+        <v>523</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>532</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10458,13 +10512,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>526</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10482,13 +10536,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10497,28 +10551,28 @@
         <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>373</v>
+        <v>528</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>374</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10537,16 +10591,18 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>242</v>
+        <v>532</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>341</v>
+        <v>534</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10594,7 +10650,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>342</v>
+        <v>530</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10606,38 +10662,38 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>343</v>
+        <v>536</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>78</v>
+        <v>537</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10649,17 +10705,15 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>532</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>345</v>
+        <v>539</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10696,51 +10750,51 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>347</v>
+        <v>538</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>343</v>
+        <v>541</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10760,20 +10814,18 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10810,17 +10862,19 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>385</v>
+        <v>543</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10838,25 +10892,23 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>386</v>
+        <v>546</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>129</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10865,7 +10917,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10874,21 +10926,21 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>380</v>
+        <v>548</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10936,13 +10988,13 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>385</v>
+        <v>547</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
@@ -10951,28 +11003,26 @@
         <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>551</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>129</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10990,20 +11040,18 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>380</v>
+        <v>146</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11052,7 +11100,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>385</v>
+        <v>148</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11064,38 +11112,38 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11104,18 +11152,20 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11152,51 +11202,51 @@
         <v>78</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>395</v>
+        <v>154</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11204,7 +11254,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>86</v>
@@ -11219,15 +11269,17 @@
         <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11264,22 +11316,20 @@
         <v>78</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>86</v>
@@ -11294,12 +11344,468 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>129</v>
       </c>
     </row>

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-careplan.xlsx
+++ b/fhir/StructureDefinition-ehealth-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -359,7 +359,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -612,13 +612,137 @@
     <t>The participating CareTeam or Practitioner.</t>
   </si>
   <si>
-    <t>CarePlan.modifierExtension</t>
+    <t>CarePlan.extension:participant.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:function</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:function.id</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.extension.id</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:function.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:function.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.extension.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:function.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://ehealth.sundhed.dk/vs/participant-function</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>The participant</t>
+  </si>
+  <si>
+    <t>The CareTeam or Practitioner that is participating.</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actor.id</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actor.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actor.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actor.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam|Practitioner) &lt;&lt;referenced&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actorref</t>
+  </si>
+  <si>
+    <t>actorref</t>
+  </si>
+  <si>
+    <t>The participant ref (string)</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actorref.id</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actorref.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actorref.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.extension:actorref.value[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.url</t>
+  </si>
+  <si>
+    <t>http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-participant</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:participant.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -626,9 +750,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -669,7 +790,7 @@
     <t>CarePlan.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+    <t xml:space="preserve">canonical(http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-plandefinition)
 </t>
   </si>
   <si>
@@ -707,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1)
 </t>
   </si>
   <si>
@@ -777,9 +898,6 @@
     <t>Allows clinicians to determine whether the plan is actionable or not.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
@@ -847,10 +965,6 @@
     <t>CarePlan.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-friendly name for the care plan</t>
   </si>
   <si>
@@ -904,7 +1018,7 @@
     <t>CarePlan.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1015,7 +1129,7 @@
     <t>CarePlan.contributor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1161,12 +1275,6 @@
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>CarePlan.activity.modifierExtension</t>
   </si>
   <si>
@@ -1202,7 +1310,7 @@
     <t>Identifies the results of the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.activity.outcomeReference</t>
@@ -1260,7 +1368,7 @@
     <t>CarePlan.activity.progress.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1411,7 +1519,7 @@
     <t>CarePlan.activity.detail.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Questionnaire|Measure|OperationDefinition)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1445,7 +1553,7 @@
     <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1472,7 +1580,7 @@
     <t>Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1653,7 +1761,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication|Substance)</t>
+Reference(Medication|4.0.1|Substance|4.0.1)</t>
   </si>
   <si>
     <t>What is to be administered/supplied</t>
@@ -1665,7 +1773,7 @@
     <t>A product supplied or administered as part of a care plan activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1681,7 +1789,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -2061,7 +2169,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN85"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2070,7 +2178,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.49609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.09375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2095,7 +2203,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4276,43 +4384,39 @@
         <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4360,25 +4464,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4389,14 +4493,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4412,23 +4516,21 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4464,19 +4566,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4488,29 +4590,31 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4519,7 +4623,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4528,16 +4632,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4588,7 +4692,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4600,13 +4704,13 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4617,10 +4721,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4631,7 +4735,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4640,20 +4744,18 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4702,25 +4804,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4731,14 +4833,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4754,21 +4856,19 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4804,19 +4904,19 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4828,10 +4928,10 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4845,21 +4945,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4868,29 +4968,27 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>78</v>
@@ -4932,25 +5030,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4961,10 +5059,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4984,20 +5082,18 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5022,13 +5118,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5046,13 +5140,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -5064,7 +5158,7 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5075,18 +5169,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -5095,26 +5191,22 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5138,11 +5230,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5160,39 +5254,39 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5200,7 +5294,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -5209,26 +5303,22 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5252,13 +5342,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5276,10 +5366,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -5288,13 +5378,13 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5305,10 +5395,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5319,7 +5409,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5328,23 +5418,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5368,29 +5454,31 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5402,7 +5490,7 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5411,7 +5499,7 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5419,10 +5507,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5430,7 +5518,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5442,25 +5530,27 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>78</v>
@@ -5502,10 +5592,10 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -5514,13 +5604,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5531,10 +5621,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5554,21 +5644,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5616,7 +5704,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5634,10 +5722,10 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5645,18 +5733,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5668,16 +5758,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5728,39 +5818,39 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5780,20 +5870,18 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5842,7 +5930,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>148</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5854,38 +5942,38 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5894,23 +5982,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5946,59 +6030,59 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -6010,25 +6094,27 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6070,10 +6156,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -6082,16 +6168,16 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6099,10 +6185,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6122,20 +6208,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6184,7 +6268,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6199,13 +6283,13 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6213,10 +6297,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6224,10 +6308,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6239,16 +6323,16 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6256,7 +6340,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6298,25 +6382,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6327,10 +6411,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6341,7 +6425,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6353,18 +6437,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6412,13 +6494,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6427,13 +6509,13 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6441,45 +6523,45 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6528,7 +6610,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6540,27 +6622,27 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6580,22 +6662,22 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>345</v>
+        <v>242</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6644,7 +6726,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6659,24 +6741,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6684,10 +6766,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6696,23 +6778,19 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6760,7 +6838,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6775,24 +6853,24 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6812,21 +6890,21 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6874,7 +6952,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6886,13 +6964,13 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>362</v>
+        <v>252</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6903,21 +6981,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6926,19 +7004,21 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6986,25 +7066,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -7015,21 +7095,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7038,21 +7118,23 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7100,7 +7182,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7112,13 +7194,13 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -7129,46 +7211,44 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7216,7 +7296,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7228,13 +7308,13 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7245,10 +7325,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7256,33 +7336,35 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7306,13 +7388,11 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7330,13 +7410,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7345,24 +7425,24 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7370,34 +7450,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>290</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7422,13 +7502,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7446,13 +7526,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7461,10 +7541,10 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7475,10 +7555,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7498,22 +7578,22 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>296</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>298</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>299</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7538,13 +7618,11 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7562,7 +7640,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7580,21 +7658,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7614,16 +7692,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7674,7 +7752,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>148</v>
+        <v>303</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7686,13 +7764,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7703,21 +7781,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7726,21 +7804,21 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7776,40 +7854,40 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7817,18 +7895,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7843,17 +7921,15 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7890,20 +7966,22 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
@@ -7915,28 +7993,26 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>129</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7957,16 +8033,16 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8016,7 +8092,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8031,34 +8107,32 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>326</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>129</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -8073,18 +8147,20 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8132,7 +8208,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8147,28 +8223,28 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>129</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8187,13 +8263,13 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8244,7 +8320,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8259,24 +8335,24 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8284,7 +8360,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
@@ -8299,15 +8375,17 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8356,10 +8434,10 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>86</v>
@@ -8371,24 +8449,24 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8396,10 +8474,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8411,20 +8489,18 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8472,25 +8548,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8501,10 +8577,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8515,7 +8591,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8527,17 +8603,17 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8586,28 +8662,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8615,10 +8691,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8626,7 +8702,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>86</v>
@@ -8638,19 +8714,23 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8698,43 +8778,43 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>148</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8753,18 +8833,20 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8812,7 +8894,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>154</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8824,13 +8906,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8841,14 +8923,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8861,25 +8943,25 @@
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>196</v>
+        <v>389</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8928,7 +9010,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8940,27 +9022,27 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>129</v>
+        <v>390</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8971,7 +9053,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8983,17 +9065,17 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9018,13 +9100,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9042,25 +9124,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9071,10 +9153,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9085,7 +9167,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9097,18 +9179,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>446</v>
+        <v>147</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9156,25 +9236,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9185,14 +9265,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9211,20 +9291,18 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>196</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9272,7 +9350,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>154</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9284,13 +9362,13 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9301,45 +9379,45 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>453</v>
+        <v>197</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>454</v>
+        <v>235</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9364,13 +9442,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9388,39 +9466,39 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>458</v>
+        <v>129</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9443,16 +9521,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9478,13 +9556,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9502,7 +9580,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9517,7 +9595,7 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9531,10 +9609,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9557,18 +9635,20 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9616,7 +9696,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9631,10 +9711,10 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9645,10 +9725,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9671,17 +9751,19 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9730,7 +9812,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9748,21 +9830,21 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9770,7 +9852,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9779,26 +9861,22 @@
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>146</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9822,13 +9900,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9846,10 +9924,10 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>476</v>
+        <v>148</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
@@ -9858,38 +9936,38 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>484</v>
+        <v>150</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9901,16 +9979,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
+        <v>195</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>488</v>
+        <v>196</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>489</v>
+        <v>197</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9948,37 +10026,37 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9989,10 +10067,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10009,32 +10087,28 @@
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J70" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>497</v>
-      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10066,19 +10140,17 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10093,26 +10165,28 @@
         <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>498</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10130,21 +10204,21 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>502</v>
+        <v>433</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10192,7 +10266,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10207,26 +10281,28 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>505</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10244,23 +10320,21 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>507</v>
+        <v>192</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>508</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10308,7 +10382,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10326,21 +10400,21 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>512</v>
+        <v>439</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>513</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10351,7 +10425,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10360,23 +10434,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>515</v>
+        <v>342</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>516</v>
+        <v>446</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10424,13 +10494,13 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
@@ -10439,24 +10509,24 @@
         <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>519</v>
+        <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>521</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10464,7 +10534,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10476,16 +10546,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>523</v>
+        <v>451</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>524</v>
+        <v>452</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10512,13 +10582,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>526</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>527</v>
+        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10536,10 +10606,10 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10554,29 +10624,29 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>529</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>86</v>
@@ -10591,17 +10661,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>532</v>
+        <v>457</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>533</v>
+        <v>458</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10650,7 +10722,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10659,30 +10731,30 @@
         <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>536</v>
+        <v>399</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>537</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10705,16 +10777,18 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>532</v>
+        <v>393</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10762,7 +10836,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10771,7 +10845,7 @@
         <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>98</v>
@@ -10780,21 +10854,21 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>541</v>
+        <v>468</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>542</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>543</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>543</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10817,13 +10891,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>544</v>
+        <v>146</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>545</v>
+        <v>147</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10874,7 +10948,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>543</v>
+        <v>148</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10886,31 +10960,31 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10929,18 +11003,18 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>387</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>548</v>
+        <v>195</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10988,7 +11062,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>547</v>
+        <v>154</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11000,59 +11074,63 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>551</v>
+        <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>552</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>552</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>146</v>
+        <v>404</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11100,25 +11178,25 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11129,21 +11207,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11155,18 +11233,18 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11190,49 +11268,49 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>154</v>
+        <v>472</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>150</v>
+        <v>478</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11243,10 +11321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11257,7 +11335,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11266,21 +11344,21 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11316,23 +11394,25 @@
         <v>78</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11341,28 +11421,26 @@
         <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>404</v>
+        <v>252</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11371,7 +11449,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11380,21 +11458,23 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>399</v>
+        <v>484</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11442,13 +11522,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11457,28 +11537,26 @@
         <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>404</v>
+        <v>252</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>485</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11496,21 +11574,23 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>399</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11534,13 +11614,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11558,7 +11638,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11573,24 +11653,24 @@
         <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>129</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11601,7 +11681,7 @@
         <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11610,18 +11690,20 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11646,13 +11728,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>499</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11670,13 +11752,13 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
@@ -11685,24 +11767,24 @@
         <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11710,10 +11792,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11722,18 +11804,20 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11782,13 +11866,13 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
@@ -11797,15 +11881,2181 @@
         <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AC100" s="2"/>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>129</v>
       </c>
     </row>
